--- a/Output_testing/R1_201907/Country/HKD/MN/AUSTRALIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/AUSTRALIA_201907_HKD_MN.xlsx
@@ -810,136 +810,435 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>10777.76741</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>31.00754880385029</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>11252.925504</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>31.43516109869913</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>10011.193962</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>27.88596113814802</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>4646.488826</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>26.07302561011298</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-10.9984383598843</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>2948.139978</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>8.481774635774695</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>3174.143413</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>8.867001696808682</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>4349.519808</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>12.11549199784579</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>1693.175489</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>9.500982255695316</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-38.95233949993661</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>1194.887233</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>3.437680809289717</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>1782.176528</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>4.978528138668134</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>2035.115738</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>5.668770238286733</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>1042.904794</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>5.852092713688922</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-8.436126412673106</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>1588.737091</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>4.570783633720079</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>1465.635209</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>4.094266765603621</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>1398.300766</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>3.894936105336305</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>851.6373610000001</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>4.778826239639821</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-9.779692362607683</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>1132.030216</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>3.256841684808003</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>1022.3775</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>2.85602187668986</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>1167.24643</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>3.251339321680603</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>663.790632</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>3.724754496566409</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>8.303075904443347</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>1085.509099</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>3.123000811191755</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>1215.160327</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>3.394562651855704</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>1269.826485</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>3.537073814303261</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>631.191553</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>3.541830001649503</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-1.48269328993702</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>1280.48636</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>3.683948798479834</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>1162.169716</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>3.246532844592572</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>1085.911962</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>3.024783945523767</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>600.113977</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>3.367443176394663</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>8.093997359509419</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>930.899776</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>2.678191051797183</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>884.33407</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>2.47039616014846</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>910.441584</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>2.53601505737942</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>497.261636</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.790303787627074</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>2.2961718247136</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>842.630444</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>2.424240904632775</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>810.5419439999999</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>2.264257110547452</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>823.929881</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>2.29503860671728</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>480.611355</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>2.696873410586374</v>
+      </c>
+      <c r="K26" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>802.480332</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>2.308729360362026</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>847.700204</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>2.368059085316781</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>887.153011</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>2.471145248233181</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>463.254424</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>2.599477780590736</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-15.93463310801768</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>12174.959664</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>35.02725950609364</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>12180.092894</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>34.0252125710696</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>11961.840591</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>33.31944452654564</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>6250.627223</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>35.07439052744821</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-4.368377538030844</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1270,433 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>81.94755000000001</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>12.26774958709517</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>97.43938900000001</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>12.96834835270871</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>84.763317</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>12.62813857840968</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>103.107846</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>23.03252223445447</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>110.5757814779384</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>133.323016</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>19.9587830811816</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>142.647679</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>18.98518465645727</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>147.536071</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>21.98009723831465</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>81.409795</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>18.18555023872655</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-3.159033786662258</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>SILVER, PLATINUM AND OTHER METALS OF THE PLATINUM GROUP</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>24.722917</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>3.701081421208301</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>98.332199</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>13.08717371903754</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>86.828636</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>12.93583223014139</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>67.537739</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>15.08677113846683</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>16.91204592716484</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>MEDICINAL AND PHARMACEUTICAL PRODUCTS, OTHER THAN MEDICAMENTS OF GROUP 542</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>68.013897</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>10.18184749682552</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>65.45203600000001</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>8.711105559601069</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>66.30877700000001</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>9.878759521891579</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>40.8129</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>9.116901023250614</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-2.02225758815624</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>52.15155</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>7.807215175790774</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>65.55022</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>8.724173009302158</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>39.577236</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>5.896263129467012</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>39.049875</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>8.723071512813561</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>120.4265134036119</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>30.050705</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>4.498664375636232</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>31.749517</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>4.225588857974543</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>33.736505</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>5.026104161204676</v>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v>29.627464</v>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>6.618266696508229</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-0.4114940552875423</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>102.98513</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>15.41712700421724</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>78.38261</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>10.43205424117047</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>73.067714</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>10.88571389908685</v>
+      </c>
+      <c r="I37" s="8" t="n">
+        <v>25.014756</v>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>5.587866938462213</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-45.48290931924652</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>NON-ALCOHOLIC BEVERAGES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>8.852384000000001</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>1.325223635859863</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>14.371611</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>1.912738367413412</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>17.654839</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>2.630238661749301</v>
+      </c>
+      <c r="I38" s="8" t="n">
+        <v>9.326555000000001</v>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>2.083392231938998</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-3.208560478544265</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>28.76322</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>4.305924707676162</v>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>30.051902</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>3.999650837275505</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>19.040861</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>2.836729848128009</v>
+      </c>
+      <c r="I39" s="8" t="n">
+        <v>8.098311000000001</v>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>1.80902361367366</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-30.01317150271367</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>TUBES, PIPES AND HOSES OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v>12.324339</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>1.844983830248384</v>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>13.007522</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>1.731189801503397</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>12.174337</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>1.813747033239159</v>
+      </c>
+      <c r="I40" s="8" t="n">
+        <v>7.983529</v>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>1.7833832859035</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>7.092406453610312</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>124.857</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>18.69139968426075</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>114.378452</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>15.22279259755593</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>90.53745000000001</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>13.48837569836769</v>
+      </c>
+      <c r="I41" s="8" t="n">
+        <v>35.693214</v>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>7.973251085801381</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-37.39077217116934</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1728,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>10774.873824</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>31.60664255084454</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>11252.701</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>32.10847166510698</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>10011.170712</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>28.4172085421345</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>4646.484094</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>26.74482458673047</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-10.99813263482633</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>2940.953657</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>8.626891833141716</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>3173.159326</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>9.054296946816679</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>4349.097509</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>12.34513069836968</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>1693.146056</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>9.745625585140445</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-38.94532181369475</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>1191.63595</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>3.495503718892184</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>1777.873037</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>5.072985235515651</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>2033.28037</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>5.771567977525303</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>1042.890128</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>6.002799745426802</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-8.291310954307807</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>1588.447264</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>4.65949631561226</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>1465.51937</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>4.181714875949378</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>1397.991235</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>3.968268008600826</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>851.5523020000001</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>4.901473131657841</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-9.763142245932377</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>1029.045086</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>3.018565296742455</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>943.9948900000001</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>2.693596246587445</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>1094.178716</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>3.105880985294396</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>638.775876</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>3.676747495147046</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>12.65555644933671</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>1081.294112</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>3.171830784152007</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>1205.232862</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>3.439013015575798</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>1261.12099</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>3.579754975782808</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>628.373434</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>3.616871795384533</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-0.9524734949222458</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>1280.468825</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>3.756083004807807</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>1162.15359</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>3.31609056483571</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>1085.909186</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>3.082407510980971</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>600.107377</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>3.454174426593427</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>8.09310060127142</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>930.703004</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>2.730092031602544</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>884.199879</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>2.522977084449549</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>910.3485480000001</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>2.584069863431306</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>497.230289</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>2.862021388534704</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>2.305636614482753</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>842.210059</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>2.470509884602681</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>810.3911440000001</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>2.312371144028232</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>823.872899</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>2.338604410674234</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>480.379609</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>2.765030099712888</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-0.05110509876204983</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>795.897548</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>2.334658365158563</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>844.2618660000001</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>2.40901790622459</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>884.897547</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>2.511825924752272</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>462.693662</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>2.663231074773578</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-15.79824947094435</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>11635.006566</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>34.12972621444325</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>11526.407208</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>32.88946531490999</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>11377.386763</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>32.2952811024537</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>5831.762459</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>33.56720067089827</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-5.649423502884854</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2186,433 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>1967.311467</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>11.26100496524878</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>1972.019631</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>10.72737614614088</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>2363.970137</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>12.90580395721571</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>1510.805747</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>13.63355708946585</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>47.24465802618197</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>1863.014057</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>10.66400053988262</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>2067.378996</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>11.24611123443887</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>2046.381154</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>11.17196599986696</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>1460.494519</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>13.17954703520099</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>12.98399035139559</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>022</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>MILK AND CREAM AND MILK PRODUCTS OTHER THAN BUTTER OR CHEESE</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>1223.488778</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>7.003320742594014</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>978.677692</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>5.3238028480463</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>931.082083</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>5.083128015535522</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>904.095596</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>8.158586202677883</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>56.26953255519174</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>1349.586518</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>7.725111521566101</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>1144.092203</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>6.223623342544694</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>1208.980883</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>6.600282304674283</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>656.80862</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>5.927060997354864</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>13.83663090714127</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>883.615203</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>5.057864682467337</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>1151.630517</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>6.264630200952443</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>1107.239902</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>6.044839943263096</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>525.600308</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>4.743033192445775</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-19.61028422339385</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>741.39107</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>4.243765494435103</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>861.025154</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>4.683797540881012</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>767.001581</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>4.187350713246555</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>408.509131</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>3.686398843872404</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-8.290764230821967</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>MEAT OF BOVINE ANIMALS, FRESH, CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>471.904485</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>2.701208648375233</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>588.906083</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>3.203526459768525</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>630.163382</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>3.440299410646926</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>334.937151</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>3.022483054892393</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-2.998019777538052</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>451.79074</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>2.586076405151874</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>465.582884</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>2.532673937601931</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>498.750192</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>2.722865276861869</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>319.438444</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>2.882622250737401</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-3.548633183058103</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>162.066898</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.9276803260154367</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>155.454871</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.8456421268591358</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>229.692896</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>1.253980090418179</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>312.350932</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>2.818664326519712</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>117.46526377866</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>50.59762</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.2896237121611668</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>820.102245</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>4.461185437565041</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>479.472975</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>2.617623683684033</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>305.498633</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>2.756828971580074</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>12.90696267942142</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>8305.356594999999</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>47.54034296210234</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>8178.186346</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>44.48763072520116</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>8054.373496</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>43.97186060458687</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>4342.98379</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>39.19121803525265</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-1.141358709122997</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
